--- a/data/trans_camb/P28B_1_R-Urba-trans_camb.xlsx
+++ b/data/trans_camb/P28B_1_R-Urba-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N19"/>
+  <dimension ref="A1:K20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,9 +526,6 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
-    <col width="14" customWidth="1" min="12" max="12"/>
-    <col width="14" customWidth="1" min="13" max="13"/>
-    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -545,23 +542,20 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
+      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
-      <c r="L1" s="3" t="n"/>
-      <c r="M1" s="3" t="n"/>
-      <c r="N1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +577,32 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
-          <t>Mz1/M1</t>
+          <t>M2/M1</t>
         </is>
       </c>
       <c r="G2" s="3" t="inlineStr">
         <is>
+          <t>M3/M1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M4/M1</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
           <t>M2/M1</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3/M1</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>M2/M1</t>
-        </is>
-      </c>
-      <c r="L2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M1</t>
-        </is>
-      </c>
-      <c r="M2" s="3" t="inlineStr">
-        <is>
-          <t>M4/M1</t>
-        </is>
-      </c>
-      <c r="N2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M1</t>
         </is>
       </c>
     </row>
@@ -639,9 +618,6 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
-      <c r="L3" s="2" t="n"/>
-      <c r="M3" s="2" t="n"/>
-      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +632,47 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-17,89</t>
+          <t>-17,77</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-22,77</t>
+          <t>-22,53</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-26,32</t>
+          <t>-26,06</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-21,23</t>
+          <t>-17,86</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-18,07</t>
+          <t>-21,5</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-21,48</t>
+          <t>-26,34</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-26,65</t>
+          <t>-17,78</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-19,44</t>
+          <t>-21,97</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-17,95</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>-22,07</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>-26,47</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>-20,39</t>
+          <t>-26,19</t>
         </is>
       </c>
     </row>
@@ -724,62 +685,47 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-23,76; -12,27</t>
+          <t>-23,43; -11,68</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-28,12; -17,84</t>
+          <t>-27,92; -17,33</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-31,5; -21,06</t>
+          <t>-31,03; -20,47</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-26,4; -15,91</t>
+          <t>-23,04; -13,32</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-22,93; -13,16</t>
+          <t>-26,55; -17,0</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-26,05; -16,86</t>
+          <t>-30,71; -21,89</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-31,28; -21,96</t>
+          <t>-21,86; -14,25</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-24,24; -15,04</t>
+          <t>-26,36; -18,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-21,54; -14,07</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>-25,66; -18,48</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>-30,03; -22,73</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>-23,78; -16,47</t>
+          <t>-29,81; -23,09</t>
         </is>
       </c>
     </row>
@@ -792,62 +738,47 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-43,2%</t>
+          <t>-42,9%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-54,98%</t>
+          <t>-54,39%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-63,55%</t>
+          <t>-62,9%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-51,25%</t>
+          <t>-37,74%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-38,09%</t>
+          <t>-45,44%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-45,28%</t>
+          <t>-55,68%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-56,17%</t>
+          <t>-39,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-40,99%</t>
+          <t>-49,38%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-40,29%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>-49,54%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>-59,41%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>-45,76%</t>
+          <t>-58,86%</t>
         </is>
       </c>
     </row>
@@ -860,62 +791,47 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-53,66; -31,55</t>
+          <t>-53,48; -29,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-63,68; -46,01</t>
+          <t>-62,48; -44,57</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-71,2; -53,89</t>
+          <t>-70,07; -52,96</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-59,68; -41,29</t>
+          <t>-46,25; -28,94</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-45,79; -28,98</t>
+          <t>-53,19; -37,76</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-52,24; -37,35</t>
+          <t>-62,0; -48,84</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-63,0; -48,96</t>
+          <t>-46,85; -33,12</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-48,47; -33,39</t>
+          <t>-55,71; -43,69</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-47,06; -33,24</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>-54,71; -43,56</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>-64,43; -53,29</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>-51,18; -38,64</t>
+          <t>-63,97; -53,41</t>
         </is>
       </c>
     </row>
@@ -932,62 +848,47 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-9,4</t>
+          <t>-8,48</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>-17,58</t>
+          <t>-17,45</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-17,47</t>
+          <t>-17,31</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>-12,18</t>
+          <t>-17,21</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-18,01</t>
+          <t>-20,48</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-20,9</t>
+          <t>-22,53</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>-23,12</t>
+          <t>-12,89</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-11,24</t>
+          <t>-19,04</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-13,74</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>-19,31</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>-20,34</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>-12,15</t>
+          <t>-19,97</t>
         </is>
       </c>
     </row>
@@ -1000,62 +901,47 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-15,34; -2,24</t>
+          <t>-14,63; -2,26</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-22,8; -12,44</t>
+          <t>-22,87; -12,36</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-23,28; -11,08</t>
+          <t>-22,62; -11,1</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-18,53; -2,26</t>
+          <t>-23,02; -11,3</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-23,56; -11,83</t>
+          <t>-25,61; -14,7</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-26,6; -15,69</t>
+          <t>-28,02; -16,97</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-28,57; -17,62</t>
+          <t>-17,28; -8,44</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-19,01; -3,33</t>
+          <t>-22,73; -15,27</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-17,76; -9,43</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-22,97; -15,52</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>-24,32; -16,28</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>-17,92; -6,13</t>
+          <t>-23,78; -14,97</t>
         </is>
       </c>
     </row>
@@ -1068,62 +954,47 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-30,57%</t>
+          <t>-27,61%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-57,18%</t>
+          <t>-56,83%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-56,79%</t>
+          <t>-56,36%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-39,6%</t>
+          <t>-38,66%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-40,35%</t>
+          <t>-46,02%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-46,81%</t>
+          <t>-50,61%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>-51,79%</t>
+          <t>-34,21%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-25,17%</t>
+          <t>-50,55%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-36,41%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>-51,14%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>-53,89%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>-32,2%</t>
+          <t>-53,02%</t>
         </is>
       </c>
     </row>
@@ -1136,62 +1007,47 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-46,43; -7,43</t>
+          <t>-43,79; -7,63</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-67,32; -43,88</t>
+          <t>-67,86; -44,18</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-68,68; -39,06</t>
+          <t>-67,85; -38,55</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-57,46; -7,41</t>
+          <t>-48,63; -26,56</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-50,07; -27,86</t>
+          <t>-53,63; -35,17</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-55,42; -37,65</t>
+          <t>-58,89; -39,46</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-60,31; -41,76</t>
+          <t>-43,91; -23,84</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-40,21; -6,86</t>
+          <t>-57,22; -42,54</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-45,31; -26,66</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>-57,97; -43,56</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>-60,8; -44,91</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>-45,06; -16,74</t>
+          <t>-59,84; -41,71</t>
         </is>
       </c>
     </row>
@@ -1208,62 +1064,47 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>-9,7</t>
+          <t>-8,16</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>-9,87</t>
+          <t>-10,14</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>-16,65</t>
+          <t>-16,19</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-11,64</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>-11,84</t>
+          <t>-14,52</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>-14,34</t>
+          <t>-23,26</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>-23,19</t>
+          <t>-9,85</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>—</t>
+          <t>-12,29</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>-10,73</t>
-        </is>
-      </c>
-      <c r="L12" s="2" t="inlineStr">
-        <is>
-          <t>-12,07</t>
-        </is>
-      </c>
-      <c r="M12" s="2" t="inlineStr">
-        <is>
-          <t>-19,88</t>
-        </is>
-      </c>
-      <c r="N12" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
+          <t>-19,68</t>
         </is>
       </c>
     </row>
@@ -1276,62 +1117,47 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-20,83; 5,84</t>
+          <t>-19,5; 7,85</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 0,65</t>
+          <t>-19,7; 0,33</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-25,75; -6,88</t>
+          <t>-25,08; -6,26</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-22,69; -1,27</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-22,59; -0,21</t>
+          <t>-24,19; -3,88</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-24,41; -3,99</t>
+          <t>-33,04; -13,91</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-32,67; -14,05</t>
+          <t>-18,02; 0,05</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-18,82; -4,53</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>-18,63; -1,63</t>
-        </is>
-      </c>
-      <c r="L13" s="2" t="inlineStr">
-        <is>
-          <t>-19,81; -4,61</t>
-        </is>
-      </c>
-      <c r="M13" s="2" t="inlineStr">
-        <is>
-          <t>-26,54; -13,02</t>
-        </is>
-      </c>
-      <c r="N13" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-26,45; -13,25</t>
         </is>
       </c>
     </row>
@@ -1344,62 +1170,47 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>-35,38%</t>
+          <t>-29,77%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-36,01%</t>
+          <t>-36,98%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-60,71%</t>
+          <t>-59,07%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-28,43%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>-28,92%</t>
+          <t>-35,48%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-35,02%</t>
+          <t>-56,82%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-56,67%</t>
+          <t>-28,9%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>—%</t>
+          <t>-36,07%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>-31,48%</t>
-        </is>
-      </c>
-      <c r="L14" s="2" t="inlineStr">
-        <is>
-          <t>-35,42%</t>
-        </is>
-      </c>
-      <c r="M14" s="2" t="inlineStr">
-        <is>
-          <t>-58,32%</t>
-        </is>
-      </c>
-      <c r="N14" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
+          <t>-57,74%</t>
         </is>
       </c>
     </row>
@@ -1412,62 +1223,47 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-66,22; 28,49</t>
+          <t>-62,73; 39,45</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-60,19; 2,93</t>
+          <t>-61,28; 3,88</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-77,68; -31,12</t>
+          <t>-75,67; -27,99</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-49,18; -3,26</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-49,12; 0,45</t>
+          <t>-53,56; -11,2</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-53,22; -10,58</t>
+          <t>-71,11; -38,36</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-71,04; -37,82</t>
+          <t>-47,29; 1,63</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>—; —</t>
+          <t>-50,47; -15,57</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>-50,11; -4,65</t>
-        </is>
-      </c>
-      <c r="L15" s="2" t="inlineStr">
-        <is>
-          <t>-51,19; -14,32</t>
-        </is>
-      </c>
-      <c r="M15" s="2" t="inlineStr">
-        <is>
-          <t>-69,9; -44,31</t>
-        </is>
-      </c>
-      <c r="N15" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
+          <t>-70,04; -40,81</t>
         </is>
       </c>
     </row>
@@ -1484,62 +1280,47 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>-13,48</t>
+          <t>-12,86</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>-19,1</t>
+          <t>-18,96</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>-21,57</t>
+          <t>-21,33</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>-15,61</t>
+          <t>-16,88</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>-17,32</t>
+          <t>-20,29</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>-20,42</t>
+          <t>-24,51</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>-24,88</t>
+          <t>-14,9</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>-16,45</t>
+          <t>-19,65</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>-15,43</t>
-        </is>
-      </c>
-      <c r="L16" s="2" t="inlineStr">
-        <is>
-          <t>-19,77</t>
-        </is>
-      </c>
-      <c r="M16" s="2" t="inlineStr">
-        <is>
-          <t>-23,26</t>
-        </is>
-      </c>
-      <c r="N16" s="2" t="inlineStr">
-        <is>
-          <t>-16,13</t>
+          <t>-22,96</t>
         </is>
       </c>
     </row>
@@ -1552,62 +1333,47 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-17,64; -9,52</t>
+          <t>-16,7; -8,58</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-23,03; -15,74</t>
+          <t>-22,35; -15,42</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>-25,12; -18,22</t>
+          <t>-25,27; -18,14</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-19,69; -11,58</t>
+          <t>-20,55; -13,41</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,61; -13,78</t>
+          <t>-23,45; -16,47</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-23,89; -17,22</t>
+          <t>-27,52; -20,82</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-27,94; -21,63</t>
+          <t>-17,46; -12,36</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-20,18; -12,78</t>
+          <t>-21,99; -17,27</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>-18,14; -12,67</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>-22,02; -17,24</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>-25,53; -20,79</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>-18,88; -13,3</t>
+          <t>-25,21; -20,49</t>
         </is>
       </c>
     </row>
@@ -1620,62 +1386,47 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>-38,06%</t>
+          <t>-36,33%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>-53,93%</t>
+          <t>-53,56%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>-60,91%</t>
+          <t>-60,24%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>-44,08%</t>
+          <t>-37,11%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>-37,99%</t>
+          <t>-44,61%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>-44,77%</t>
+          <t>-53,88%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>-54,57%</t>
+          <t>-36,74%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>-36,07%</t>
+          <t>-48,43%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>-37,98%</t>
-        </is>
-      </c>
-      <c r="L18" s="2" t="inlineStr">
-        <is>
-          <t>-48,68%</t>
-        </is>
-      </c>
-      <c r="M18" s="2" t="inlineStr">
-        <is>
-          <t>-57,27%</t>
-        </is>
-      </c>
-      <c r="N18" s="2" t="inlineStr">
-        <is>
-          <t>-39,71%</t>
+          <t>-56,6%</t>
         </is>
       </c>
     </row>
@@ -1688,74 +1439,66 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-47,24; -27,86</t>
+          <t>-44,73; -25,4</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-61,15; -47,2</t>
+          <t>-60,4; -45,81</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>-67,09; -53,16</t>
+          <t>-67,09; -53,47</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-52,95; -34,05</t>
+          <t>-43,28; -30,53</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-43,78; -31,9</t>
+          <t>-50,13; -38,19</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>-50,52; -39,23</t>
+          <t>-58,75; -47,67</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-59,29; -49,22</t>
+          <t>-41,73; -31,36</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-43,07; -29,16</t>
+          <t>-52,87; -43,85</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>-43,26; -31,42</t>
-        </is>
-      </c>
-      <c r="L19" s="2" t="inlineStr">
-        <is>
-          <t>-53,11; -43,98</t>
-        </is>
-      </c>
-      <c r="M19" s="2" t="inlineStr">
-        <is>
-          <t>-61,09; -52,73</t>
-        </is>
-      </c>
-      <c r="N19" s="2" t="inlineStr">
-        <is>
-          <t>-45,39; -33,85</t>
+          <t>-60,91; -52,25</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A4:A7"/>
+    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
+    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A12:A15"/>
+    <mergeCell ref="I1:K1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:N1"/>
     <mergeCell ref="A16:A19"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
